--- a/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/Sybil_test(Finished)/Final2/100nodes/100.xlsx
+++ b/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/Sybil_test(Finished)/Final2/100nodes/100.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Final2\100nodes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据\Sybil_test(Finished)\Final2\100nodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CF1C3D-AA1C-49C5-AAE6-09A91CF37D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DEBCAD-388F-4CAC-98DC-198FC48223DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
     <sheet name="data" sheetId="2" r:id="rId2"/>
     <sheet name="综合图" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1556,9 +1556,9 @@
       <selection activeCell="V44" sqref="V44:V53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>4317</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>4288</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>4266</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>4279</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>4312</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>4280</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>4320</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>4278</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>4377</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>4301</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>4301.8</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>4297</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>4299</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>4310</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>4345</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>4333</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>4299</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>4443</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>4303</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>4312</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>4303</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>4324.3999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>4310</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>4282</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>4301</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>4298</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>4279</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>4294</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>4334</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>4324</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>4315</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>4312</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>4304.8999999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>4290</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>4297</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>4371</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>4296</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>4308</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>4317</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>4296</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>4326</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>4293</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>1842.3</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>1842.3</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>1637.6</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>1637.6</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>1432.9</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>1432.9</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>1228.2</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>1228.2</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>1228.2</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>2</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>4328</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>4294</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>4321.7</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>4311</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>4303</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>2</v>
       </c>
@@ -5337,7 +5337,7 @@
         <v>4297</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>2</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>4321</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>2</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>4337</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>4326</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>2</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>4326</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>4304</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>4321</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>4293</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>4313.8999999999996</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>4351</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>4375</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>4356</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>4319</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>2</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v>4335</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>2</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>4354</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>2</v>
       </c>
@@ -6362,7 +6362,7 @@
         <v>4319</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -6428,7 +6428,7 @@
         <v>4351</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>2</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>4376</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>4343.6000000000004</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>4359</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>4336</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>4342</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>2</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>4375</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>2</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>4355</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>2</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>4339</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>2</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>4382</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>2</v>
       </c>
@@ -7057,7 +7057,7 @@
         <v>4358</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>2</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>4345</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>2</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>4363</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>15</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>4355.3999999999996</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>2</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>4372</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>2</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>4393</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>2</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>4457</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>2</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>4423</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>2</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>4460</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>2</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>4375</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>2</v>
       </c>
@@ -7686,7 +7686,7 @@
         <v>4531</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>2</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>4376</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>2</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>4447</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>2</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>4381</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>4421.5</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>2</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>4920</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>2</v>
       </c>
@@ -8051,7 +8051,7 @@
         <v>4527</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>2</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>4517</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>2</v>
       </c>
@@ -8183,7 +8183,7 @@
         <v>4520</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>2</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>4472</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>2</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>4445</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>2</v>
       </c>
@@ -8381,7 +8381,7 @@
         <v>4457</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>2</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>4478</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>2</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>4497</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>2</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
       <c r="R111" s="2"/>
       <c r="T111">
         <f>AVERAGE(T101:T110)</f>
@@ -8601,19 +8601,19 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+      <selection activeCell="H2" sqref="H2:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.25" customWidth="1"/>
-    <col min="8" max="8" width="16.08203125" customWidth="1"/>
+    <col min="8" max="8" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8636,7 +8636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0.05</v>
       </c>
@@ -8644,26 +8644,26 @@
         <v>4301.8</v>
       </c>
       <c r="C2" s="1">
-        <f>B2*50/1000000</f>
-        <v>0.21509</v>
+        <f>B2*2*50/1000000</f>
+        <v>0.43018000000000001</v>
       </c>
       <c r="D2" s="1">
         <v>2047</v>
       </c>
       <c r="E2">
         <f>D2/C2</f>
-        <v>9516.9463945325206</v>
+        <v>4758.4731972662603</v>
       </c>
       <c r="G2">
         <f>ROUND(C2,6)</f>
-        <v>0.21509</v>
+        <v>0.43018000000000001</v>
       </c>
       <c r="H2">
         <f>FLOOR(E2,1)</f>
-        <v>9516</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4758</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.1</v>
       </c>
@@ -8671,26 +8671,26 @@
         <v>4324.3999999999996</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C11" si="0">B3*50/1000000</f>
-        <v>0.21621999999999997</v>
+        <f t="shared" ref="C3:C11" si="0">B3*2*50/1000000</f>
+        <v>0.43243999999999994</v>
       </c>
       <c r="D3" s="1">
         <v>1842.3</v>
       </c>
       <c r="E3">
         <f>D3/C3</f>
-        <v>8520.4883914531511</v>
+        <v>4260.2441957265755</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G11" si="1">ROUND(C3,6)</f>
-        <v>0.21622</v>
+        <v>0.43243999999999999</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H11" si="2">FLOOR(E3,1)</f>
-        <v>8520</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0.15</v>
       </c>
@@ -8699,25 +8699,25 @@
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>0.21524499999999996</v>
+        <v>0.43048999999999993</v>
       </c>
       <c r="D4" s="1">
         <v>1842.3</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E3:E11" si="3">D4/C4</f>
-        <v>8559.0838346999935</v>
+        <f t="shared" ref="E4:E11" si="3">D4/C4</f>
+        <v>4279.5419173499968</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
-        <v>0.21524499999999999</v>
+        <v>0.43048999999999998</v>
       </c>
       <c r="H4">
         <f t="shared" si="2"/>
-        <v>8559</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0.2</v>
       </c>
@@ -8726,25 +8726,25 @@
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>0.21551000000000001</v>
+        <v>0.43102000000000001</v>
       </c>
       <c r="D5" s="1">
         <v>1637.6</v>
       </c>
       <c r="E5">
         <f t="shared" si="3"/>
-        <v>7598.7193169690499</v>
+        <v>3799.359658484525</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>0.21551000000000001</v>
+        <v>0.43102000000000001</v>
       </c>
       <c r="H5">
         <f t="shared" si="2"/>
-        <v>7598</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3799</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0.25</v>
       </c>
@@ -8753,25 +8753,25 @@
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>0.216085</v>
+        <v>0.43217</v>
       </c>
       <c r="D6" s="1">
         <v>1637.6</v>
       </c>
       <c r="E6">
         <f t="shared" si="3"/>
-        <v>7578.4992017030336</v>
+        <v>3789.2496008515168</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>0.216085</v>
+        <v>0.43217</v>
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
-        <v>7578</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0.3</v>
       </c>
@@ -8780,25 +8780,25 @@
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>0.21569499999999997</v>
+        <v>0.43138999999999994</v>
       </c>
       <c r="D7" s="1">
         <v>1432.9</v>
       </c>
       <c r="E7">
         <f t="shared" si="3"/>
-        <v>6643.1767078513658</v>
+        <v>3321.5883539256829</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>0.215695</v>
+        <v>0.43139</v>
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>6643</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0.35</v>
       </c>
@@ -8807,25 +8807,25 @@
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>0.21718000000000004</v>
+        <v>0.43436000000000008</v>
       </c>
       <c r="D8" s="1">
         <v>1432.9</v>
       </c>
       <c r="E8">
         <f t="shared" si="3"/>
-        <v>6597.7530159314847</v>
+        <v>3298.8765079657423</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>0.21718000000000001</v>
+        <v>0.43436000000000002</v>
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>6597</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0.4</v>
       </c>
@@ -8834,25 +8834,25 @@
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>0.21776999999999996</v>
+        <v>0.43553999999999993</v>
       </c>
       <c r="D9" s="1">
         <v>1228.2</v>
       </c>
       <c r="E9">
         <f t="shared" si="3"/>
-        <v>5639.8953023832491</v>
+        <v>2819.9476511916246</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>0.21776999999999999</v>
+        <v>0.43553999999999998</v>
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>5639</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2819</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>0.45</v>
       </c>
@@ -8861,25 +8861,25 @@
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>0.22107499999999999</v>
+        <v>0.44214999999999999</v>
       </c>
       <c r="D10" s="1">
         <v>1228.2</v>
       </c>
       <c r="E10">
         <f t="shared" si="3"/>
-        <v>5555.5806852877986</v>
+        <v>2777.7903426438993</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>0.22107499999999999</v>
+        <v>0.44214999999999999</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>5555</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>0.49</v>
       </c>
@@ -8888,70 +8888,70 @@
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>0.22660500000000003</v>
+        <v>0.45321000000000006</v>
       </c>
       <c r="D11" s="1">
         <v>1228.2</v>
       </c>
       <c r="E11">
         <f t="shared" si="3"/>
-        <v>5420.0039716687625</v>
+        <v>2710.0019858343812</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>0.226605</v>
+        <v>0.45321</v>
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>5420</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C15" s="1">
         <v>0.21688000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C16" s="1">
         <v>0.22201999999999997</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="1">
         <v>0.2208</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" s="1">
         <v>0.21825500000000003</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="1">
         <v>0.21959000000000001</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" s="1">
         <v>0.22290500000000002</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" s="1">
         <v>0.221715</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C22" s="1">
         <v>0.223135</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C23" s="1">
         <v>0.22186999999999998</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C24" s="1">
         <v>0.22478000000000004</v>
       </c>
@@ -8970,12 +8970,12 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8986,7 +8986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>512</v>
       </c>
@@ -8997,7 +8997,7 @@
         <v>6602</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1024</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>6868</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1536</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>7041</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2048</v>
       </c>
@@ -9030,7 +9030,7 @@
         <v>7075</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2560</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>7113</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>3072</v>
       </c>
@@ -9052,7 +9052,7 @@
         <v>7122</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>3584</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>7106</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>4096</v>
       </c>
@@ -9074,7 +9074,7 @@
         <v>7164</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>4608</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>7174</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>5120</v>
       </c>
